--- a/ChemicalSummon/Assets/StreamingAssets/Character.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Character.xlsx
@@ -105,7 +105,7 @@
     <t>青铜傀儡</t>
   </si>
   <si>
-    <t>噶啊啊啊啊！！</t>
+    <t>呜噢噢噢噢！！</t>
   </si>
   <si>
     <t>呜噢噢噢噢噢噢！！</t>
@@ -117,7 +117,7 @@
     <t>呃呃呃...</t>
   </si>
   <si>
-    <t>Gahhhhhhh!!</t>
+    <t>Wahhhhhhh!!</t>
   </si>
   <si>
     <t>Wahhhhhhhhhhh!!</t>
@@ -139,8 +139,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -153,42 +153,66 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -196,32 +220,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,6 +258,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -265,6 +273,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -275,21 +290,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,13 +304,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,79 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,73 +478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +495,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,15 +557,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -584,17 +595,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -603,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,133 +615,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>

--- a/ChemicalSummon/Assets/StreamingAssets/Character.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Character.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Lio</t>
   </si>
@@ -75,6 +75,30 @@
     <t>Japanese</t>
   </si>
   <si>
+    <t>リオ</t>
+  </si>
+  <si>
+    <t>リアクター起動。</t>
+  </si>
+  <si>
+    <t>攻撃態勢！</t>
+  </si>
+  <si>
+    <t>融合発動！</t>
+  </si>
+  <si>
+    <t>もったいない。</t>
+  </si>
+  <si>
+    <t>ぐっ！</t>
+  </si>
+  <si>
+    <t>余裕だったな。</t>
+  </si>
+  <si>
+    <t>馬鹿な…</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
@@ -115,6 +139,24 @@
   </si>
   <si>
     <t>呃呃呃...</t>
+  </si>
+  <si>
+    <t>ブロンズゴーレム</t>
+  </si>
+  <si>
+    <t>グオオオオ！！</t>
+  </si>
+  <si>
+    <t>グオオオオオオ！！</t>
+  </si>
+  <si>
+    <t>グッ！</t>
+  </si>
+  <si>
+    <t>グァハハハ！！</t>
+  </si>
+  <si>
+    <t>グゥゥゥ…</t>
   </si>
   <si>
     <t>Wahhhhhhh!!</t>
@@ -137,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -151,6 +193,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -159,6 +215,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -167,36 +252,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -214,6 +269,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,14 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -258,38 +313,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,31 +346,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,151 +514,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +537,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -518,17 +575,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,15 +637,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -603,10 +645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,133 +657,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,7 +1145,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1176,43 +1218,67 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1220,50 +1286,68 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/Character.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Character.xlsx
@@ -60,7 +60,7 @@
     <t>融合发动！</t>
   </si>
   <si>
-    <t>真浪费。</t>
+    <t>谢谢你的卡。</t>
   </si>
   <si>
     <t>呃！</t>
@@ -78,7 +78,7 @@
     <t>リオ</t>
   </si>
   <si>
-    <t>リアクター起動。</t>
+    <t>魔術回路起動。</t>
   </si>
   <si>
     <t>攻撃態勢！</t>
@@ -87,13 +87,13 @@
     <t>融合発動！</t>
   </si>
   <si>
-    <t>もったいない。</t>
+    <t>貰った。</t>
   </si>
   <si>
     <t>ぐっ！</t>
   </si>
   <si>
-    <t>余裕だったな。</t>
+    <t>簡単な相手だ。</t>
   </si>
   <si>
     <t>馬鹿な…</t>
@@ -111,7 +111,7 @@
     <t>Fusion time!</t>
   </si>
   <si>
-    <t>Wasteful.</t>
+    <t>Thank you.</t>
   </si>
   <si>
     <t>Ugh!</t>
@@ -179,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -194,6 +194,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -208,7 +223,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -216,10 +231,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,60 +245,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,41 +269,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,25 +346,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,157 +520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,6 +551,60 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,60 +637,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -645,145 +645,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>

--- a/ChemicalSummon/Assets/StreamingAssets/Character.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Character.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>Lio</t>
   </si>
@@ -135,6 +135,12 @@
     <t>呜噢噢噢噢噢噢！！</t>
   </si>
   <si>
+    <t>融合！</t>
+  </si>
+  <si>
+    <t>夺走！</t>
+  </si>
+  <si>
     <t>噶哈哈哈哈！！</t>
   </si>
   <si>
@@ -150,6 +156,9 @@
     <t>グオオオオオオ！！</t>
   </si>
   <si>
+    <t>奪え！</t>
+  </si>
+  <si>
     <t>グッ！</t>
   </si>
   <si>
@@ -163,6 +172,12 @@
   </si>
   <si>
     <t>Wahhhhhhhhhhh!!</t>
+  </si>
+  <si>
+    <t>Fusion!</t>
+  </si>
+  <si>
+    <t>Grab it!</t>
   </si>
   <si>
     <t>Guh!</t>
@@ -181,8 +196,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -194,6 +209,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -201,22 +245,69 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,15 +322,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,91 +331,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,85 +361,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,97 +529,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,39 +572,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,13 +614,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,6 +637,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -645,145 +660,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1160,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1294,14 +1309,20 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1309,22 +1330,28 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1335,19 +1362,25 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/Character.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Character.xlsx
@@ -194,8 +194,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -209,6 +209,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -216,19 +223,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,8 +260,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,67 +299,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -321,6 +307,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -329,6 +322,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -337,16 +337,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,13 +361,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,169 +529,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,6 +570,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -586,21 +601,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,10 +660,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,133 +672,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
